--- a/biology/Botanique/Wilhelm_Daniel_Joseph_Koch/Wilhelm_Daniel_Joseph_Koch.xlsx
+++ b/biology/Botanique/Wilhelm_Daniel_Joseph_Koch/Wilhelm_Daniel_Joseph_Koch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilhelm Daniel Joseph[1] Koch, né le 5 mars 1771 à Kusel en Palatinat-Deux-Ponts et mort le 14 novembre 1849 à Erlangen, est un botaniste bavarois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wilhelm Daniel Joseph Koch, né le 5 mars 1771 à Kusel en Palatinat-Deux-Ponts et mort le 14 novembre 1849 à Erlangen, est un botaniste bavarois.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à Iéna et à Marbourg. Il devient professeur de botanique et de médecine à l'université d'Erlangen en 1824, où il demeura jusqu'à sa mort, et fut directeur de son jardin botanique. En 1833, il est élu membre étranger de l'Académie royale des sciences de Suède.
 Il fait paraître de 1835 à 1837 Synopsis florae germanicae et helveticae.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plantarum palatinae flores Catalogus, 1814.
 (lat) De Salicibus Europaeis commentatio, 1828. Google livres.
